--- a/medicine/Enfance/Goodbye_Berlin/Goodbye_Berlin.xlsx
+++ b/medicine/Enfance/Goodbye_Berlin/Goodbye_Berlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodbye Berlin ((de)Tschick) est un roman de l'auteur allemand Wolfgang Herrndorf publié en 2010.
 En Allemagne, il est paru aux éditions Rowohlt.
 Il raconte l'histoire d'un road-trip et de l'amitié peu conventionnelle entre Maik, un jeune allemand de 14 ans et de Tschick, un Spätaussiedler d'origine russe.
-Le roman a eu un énorme succès en Allemagne, où il s'est vendu à plus de 2 millions d'exemplaires et a été traduit dans 25 langues[1]. Il a gagné en 2011 le Deutscher Jugendliteraturpreis[2].
+Le roman a eu un énorme succès en Allemagne, où il s'est vendu à plus de 2 millions d'exemplaires et a été traduit dans 25 langues. Il a gagné en 2011 le Deutscher Jugendliteraturpreis.
 En France, il a été publié en 2012 aux éditions Thierry Magnier sous le titre Goodbye Berlin.
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Intrigue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maik Klingenberg, 14 ans, est issu d'une famille aisée à Marzahn. Sa mère est alcoolique et son père travaille toujours énormément, et il n'a pas d'amis dans sa classe, car il est considéré comme trop ennuyeux par ses camarades. C'est pourquoi, au début des vacances d'été, il n'est pas invité à l'anniversaire de Tatjana Cosic, la plus belle fille de la classe dont il est secrètement amoureux. L'une des rares fois où il se fait remarquer dans sa classe, c'est lorsqu'il lit sa rédaction en cours d'allemand, dans laquelle il parle avec franchise de sa mère alcoolique. Le professeur est horrifié, la classe rit et le traite de psychopathe. Personne ne comprend comment on peut écrire sur sa mère de manière aussi crue.
 Le nouveau camarade de classe Tschick (de son vrai nom Andrej Tschichatschow), un expatrié russe taciturne qui arrive de temps en temps visiblement ivre en cours, est lui aussi un marginal et est exclu de la fête d'anniversaire de Tatiana. Maik, qui espère jusqu'au bout être tout de même invité, dessine laborieusement au crayon un poster de Beyoncé dans un magazine en guise de cadeau pour Tatiana. Mais le dernier jour d'école arrive sans que rien se passe. De plus, il devient clair que la mère de Maik doit à nouveau aller en cure de désintoxication et que son père veut profiter de ce temps pour partir en vacances avec sa jeune assistante. Maik va donc devoir passer les vacances d'été seul. C'est alors que Tschick apparaît soudain devant la porte d'entrée avec une Lada Niva bleu clair volée et en mauvais état. Tschick propose à Maik d'aller ensemble chez son grand-père en Valachie. Bien qu'ils ne sachent pas exactement où cette région se trouve, Maik accepte après une courte hésitation, et un voyage vers l'inconnu commence. Mais ils se rendent d'abord à la fête d'anniversaire de Tatiana et Maik, encouragé par Tschick, lui remet le cadeau avant d'accélérer à nouveau et de laisser les invités stupéfaits dans le rétroviseur.
@@ -551,9 +565,11 @@
           <t>Style</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire est racontée à la première personne du point de vue de Maik. L'ambiance et le style rappelle celle des road movies[3]. Une critique du journal Die Zeit applaudit le fait que Wolfgang Herrndorf ait réussi à utiliser la langue que parlent les adolescents sans que cela sonne étrange, et le caractère authentique de ce roman[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire est racontée à la première personne du point de vue de Maik. L'ambiance et le style rappelle celle des road movies. Une critique du journal Die Zeit applaudit le fait que Wolfgang Herrndorf ait réussi à utiliser la langue que parlent les adolescents sans que cela sonne étrange, et le caractère authentique de ce roman.
 </t>
         </is>
       </c>
@@ -582,14 +598,16 @@
           <t>Accueil et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le roman a connu un grand succès en Allemagne, où il a été vendu à plus de 2 millions d'exemplaires et a figuré en tête de la liste de bestsellers du magazine Spiegel pendant plus de deux ans.
-Il a reçu de très bonnes critiques du Süddeutsche Zeitung[3] et du Zeit[4].
+Il a reçu de très bonnes critiques du Süddeutsche Zeitung et du Zeit.
 Ce livre a aussi reçu les prix littéraires allemands suivants :
-2011 : Deutscher Jugendliteraturpreis dans la catégorie du meilleur livre pour adolescents[2]
-2011 : Clemens-Brentano-Preis[5]
-2012 : Hans-Fallada-Preis[6]</t>
+2011 : Deutscher Jugendliteraturpreis dans la catégorie du meilleur livre pour adolescents
+2011 : Clemens-Brentano-Preis
+2012 : Hans-Fallada-Preis</t>
         </is>
       </c>
     </row>
@@ -617,7 +635,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman fait l'objet d'une adaptation en film en 2016 sous le titre original allemand, Tschick. Ce film a été réalisé par Fatih Akin avec Tristan Göbel dans le rôle de Maik et Anand Batbileg dans le rôle de Tschick.
 </t>
